--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H2">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>2.832732243210333</v>
+        <v>3.609427231759667</v>
       </c>
       <c r="R2">
-        <v>25.494590188893</v>
+        <v>32.484845085837</v>
       </c>
       <c r="S2">
-        <v>0.08260069329733838</v>
+        <v>0.1008703618806222</v>
       </c>
       <c r="T2">
-        <v>0.08260069329733837</v>
+        <v>0.1008703618806222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H3">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>3.248794368565556</v>
+        <v>6.020054912136667</v>
       </c>
       <c r="R3">
-        <v>29.23914931709</v>
+        <v>54.18049420923</v>
       </c>
       <c r="S3">
-        <v>0.09473280359172942</v>
+        <v>0.1682386369186889</v>
       </c>
       <c r="T3">
-        <v>0.09473280359172941</v>
+        <v>0.1682386369186889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H4">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>0.3609142319848888</v>
+        <v>0.6518285131576667</v>
       </c>
       <c r="R4">
-        <v>3.248228087864</v>
+        <v>5.866456618419</v>
       </c>
       <c r="S4">
-        <v>0.01052403235578757</v>
+        <v>0.01821623592457556</v>
       </c>
       <c r="T4">
-        <v>0.01052403235578757</v>
+        <v>0.01821623592457556</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H5">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I5">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J5">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>0.2181545172582222</v>
+        <v>0.1324612962026667</v>
       </c>
       <c r="R5">
-        <v>1.963390655324</v>
+        <v>1.192151665824</v>
       </c>
       <c r="S5">
-        <v>0.0063612487253838</v>
+        <v>0.003701811402532507</v>
       </c>
       <c r="T5">
-        <v>0.006361248725383799</v>
+        <v>0.003701811402532506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I6">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J6">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>8.320709595524669</v>
+        <v>5.721565847837112</v>
       </c>
       <c r="R6">
-        <v>74.88638635972201</v>
+        <v>51.49409263053401</v>
       </c>
       <c r="S6">
-        <v>0.242626666520815</v>
+        <v>0.1598969533218081</v>
       </c>
       <c r="T6">
-        <v>0.2426266665208149</v>
+        <v>0.1598969533218081</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I7">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J7">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>9.542827261984447</v>
+        <v>9.542827261984446</v>
       </c>
       <c r="R7">
-        <v>85.88544535786002</v>
+        <v>85.88544535786001</v>
       </c>
       <c r="S7">
-        <v>0.2782628502026511</v>
+        <v>0.2666873100559385</v>
       </c>
       <c r="T7">
-        <v>0.278262850202651</v>
+        <v>0.2666873100559385</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I8">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J8">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>1.060129322295111</v>
+        <v>1.033260825073111</v>
       </c>
       <c r="R8">
-        <v>9.541163900656001</v>
+        <v>9.299347425658002</v>
       </c>
       <c r="S8">
-        <v>0.03091270529232003</v>
+        <v>0.02887588158727973</v>
       </c>
       <c r="T8">
-        <v>0.03091270529232003</v>
+        <v>0.02887588158727973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I9">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J9">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>0.6407949037217778</v>
+        <v>0.2099740429297778</v>
       </c>
       <c r="R9">
-        <v>5.767154133496001</v>
+        <v>1.889766386368</v>
       </c>
       <c r="S9">
-        <v>0.01868517698264147</v>
+        <v>0.005868010721894578</v>
       </c>
       <c r="T9">
-        <v>0.01868517698264146</v>
+        <v>0.005868010721894577</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H10">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>0.287138693366</v>
+        <v>0.3913297507385556</v>
       </c>
       <c r="R10">
-        <v>2.584248240294</v>
+        <v>3.521967756647</v>
       </c>
       <c r="S10">
-        <v>0.008372783979626689</v>
+        <v>0.01093624307599842</v>
       </c>
       <c r="T10">
-        <v>0.008372783979626689</v>
+        <v>0.01093624307599842</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H11">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I11">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J11">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>0.3293126529133333</v>
+        <v>0.6526870987922222</v>
       </c>
       <c r="R11">
-        <v>2.96381387622</v>
+        <v>5.874183889129999</v>
       </c>
       <c r="S11">
-        <v>0.009602550155393333</v>
+        <v>0.01824023026996672</v>
       </c>
       <c r="T11">
-        <v>0.009602550155393333</v>
+        <v>0.01824023026996672</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H12">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I12">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J12">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>0.03658391690133333</v>
+        <v>0.07067046187655555</v>
       </c>
       <c r="R12">
-        <v>0.329255252112</v>
+        <v>0.636034156889</v>
       </c>
       <c r="S12">
-        <v>0.001066764042674813</v>
+        <v>0.001974982346515839</v>
       </c>
       <c r="T12">
-        <v>0.001066764042674814</v>
+        <v>0.001974982346515839</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1506176666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.451853</v>
+      </c>
+      <c r="I13">
+        <v>0.03155280162368235</v>
+      </c>
+      <c r="J13">
+        <v>0.03155280162368235</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.07599399999999999</v>
-      </c>
-      <c r="H13">
-        <v>0.227982</v>
-      </c>
-      <c r="I13">
-        <v>0.01968690343649077</v>
-      </c>
-      <c r="J13">
-        <v>0.01968690343649077</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>0.02211313942133333</v>
+        <v>0.01436129410488889</v>
       </c>
       <c r="R13">
-        <v>0.199018254792</v>
+        <v>0.129251646944</v>
       </c>
       <c r="S13">
-        <v>0.0006448052587959379</v>
+        <v>0.0004013459312013761</v>
       </c>
       <c r="T13">
-        <v>0.0006448052587959379</v>
+        <v>0.000401345931201376</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H14">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I14">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J14">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>3.144683945489333</v>
+        <v>2.680054473771889</v>
       </c>
       <c r="R14">
-        <v>28.302155509404</v>
+        <v>24.120490263947</v>
       </c>
       <c r="S14">
-        <v>0.09169700903465922</v>
+        <v>0.07489777387681419</v>
       </c>
       <c r="T14">
-        <v>0.0916970090346592</v>
+        <v>0.07489777387681419</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H15">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I15">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J15">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>3.606564481168889</v>
+        <v>4.469982095125554</v>
       </c>
       <c r="R15">
-        <v>32.45908033052</v>
+        <v>40.22983885612999</v>
       </c>
       <c r="S15">
-        <v>0.1051651554008121</v>
+        <v>0.1249197400539917</v>
       </c>
       <c r="T15">
-        <v>0.1051651554008121</v>
+        <v>0.1249197400539917</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H16">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I16">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J16">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>0.4006595377102222</v>
+        <v>0.4839925591098889</v>
       </c>
       <c r="R16">
-        <v>3.605935839392</v>
+        <v>4.355933031989</v>
       </c>
       <c r="S16">
-        <v>0.01168298051126399</v>
+        <v>0.01352583151015403</v>
       </c>
       <c r="T16">
-        <v>0.01168298051126399</v>
+        <v>0.01352583151015403</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H17">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I17">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J17">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>0.2421785573635555</v>
+        <v>0.0983545218382222</v>
       </c>
       <c r="R17">
-        <v>2.179607016272</v>
+        <v>0.8851906965439998</v>
       </c>
       <c r="S17">
-        <v>0.007061774648107323</v>
+        <v>0.002748651122017585</v>
       </c>
       <c r="T17">
-        <v>0.007061774648107322</v>
+        <v>0.002748651122017585</v>
       </c>
     </row>
   </sheetData>
